--- a/SellyExcel/6.9 테스트 통과/보고서 조회 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/보고서 조회 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEA9FE-7300-7F46-B2A7-1790482015DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C95024C-609C-6D45-9023-39F550B0C2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="14360" windowWidth="27500" windowHeight="16440" xr2:uid="{13B2492B-F031-6746-844F-66EE0E2F2358}"/>
   </bookViews>
@@ -198,9 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -218,6 +215,9 @@
   <si>
     <t>프레딧 AOS MPM 진입</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
   </si>
 </sst>
 </file>
@@ -610,9 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EF5486-44C4-D140-8E16-994091171B1C}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -622,16 +620,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -686,10 +684,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -702,10 +700,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
